--- a/Design/Excel/Monster.xlsx
+++ b/Design/Excel/Monster.xlsx
@@ -286,7 +286,7 @@
         <v>3000.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1000.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -294,7 +294,7 @@
         <v>3001.0</v>
       </c>
       <c r="B3" s="1">
-        <v>1001.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -302,7 +302,7 @@
         <v>3002.0</v>
       </c>
       <c r="B4" s="1">
-        <v>1002.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
